--- a/competitions/answer/analysis/xmodel/evaluation_xmodel.xlsx
+++ b/competitions/answer/analysis/xmodel/evaluation_xmodel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/0x1af/dev/promptrank/competitions/hallucination/analysis/xmodel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/0x1af/dev/promptrank/competitions/answer/analysis/xmodel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B186B7A-BC4D-C142-9121-712B514499FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A4D8DE-08BA-4A4C-B42B-464B62FDD5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13280" yWindow="5620" windowWidth="32280" windowHeight="19780" xr2:uid="{1952D3E9-D84B-F14E-B184-510410123A87}"/>
+    <workbookView xWindow="8840" yWindow="5620" windowWidth="32280" windowHeight="19780" xr2:uid="{1952D3E9-D84B-F14E-B184-510410123A87}"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis" sheetId="1" r:id="rId1"/>
@@ -53702,7 +53702,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
